--- a/work_exam_score_retrieve/works/work_53746342.xlsx
+++ b/work_exam_score_retrieve/works/work_53746342.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10603DA-4273-4E69-8956-C07E9A6AE124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="21250" yWindow="6780" windowWidth="16780" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>personid</t>
   </si>
@@ -31,18 +32,6 @@
     <t>课程</t>
   </si>
   <si>
-    <t>19038507</t>
-  </si>
-  <si>
-    <t>19303515</t>
-  </si>
-  <si>
-    <t>19520783</t>
-  </si>
-  <si>
-    <t>20194944</t>
-  </si>
-  <si>
     <t>197254415</t>
   </si>
   <si>
@@ -122,13 +111,25 @@
   </si>
   <si>
     <t>左泽</t>
+  </si>
+  <si>
+    <t>概率分布与抽样分布</t>
+  </si>
+  <si>
+    <t>总体方差的统计推断</t>
+  </si>
+  <si>
+    <t>简单线性回归</t>
+  </si>
+  <si>
+    <t>时间序列及预测</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,125 +164,133 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -337,8 +346,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -360,8 +369,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -377,8 +386,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -415,23 +424,28 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,33 +462,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>91</v>
@@ -489,21 +503,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>88</v>
@@ -518,21 +532,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>95</v>
@@ -547,21 +561,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>95</v>
@@ -576,21 +590,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>97</v>
@@ -605,21 +619,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>95</v>
@@ -634,21 +648,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>96</v>
@@ -663,21 +677,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>93</v>
@@ -692,21 +706,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>94</v>
@@ -721,21 +735,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>95</v>
@@ -750,21 +764,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>96</v>
@@ -779,21 +793,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>85</v>
@@ -809,5 +823,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>